--- a/diagrams/GranttChart.xlsx
+++ b/diagrams/GranttChart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5AB6AE6-98FC-4E01-BD1C-C4919D164EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5828E9C-FDB7-4DA7-97F8-F693C2377937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Plan</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Brief</t>
   </si>
   <si>
-    <t>Intial Research</t>
-  </si>
-  <si>
     <t>Introduction and Research</t>
   </si>
   <si>
@@ -220,6 +217,12 @@
   </si>
   <si>
     <t>Iteration of Concept</t>
+  </si>
+  <si>
+    <t>Video Demo Presentation</t>
+  </si>
+  <si>
+    <t>Initial Research</t>
   </si>
 </sst>
 </file>
@@ -680,118 +683,118 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,7 +808,7 @@
     <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -822,15 +825,6 @@
         <bottom style="thin">
           <color theme="7"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -1201,10 +1195,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ35"/>
+  <dimension ref="A1:AQ36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AP35" sqref="A1:AP35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1223,59 +1217,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="43"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="40"/>
     </row>
     <row r="2" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1285,16 +1279,16 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AP2" s="45"/>
+      <c r="AP2" s="41"/>
     </row>
     <row r="3" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
       <c r="I3" s="10"/>
       <c r="J3" s="3" t="s">
         <v>0</v>
@@ -1317,26 +1311,26 @@
       <c r="AD3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AP3" s="45"/>
+      <c r="AP3" s="41"/>
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="AP4" s="45"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="AP4" s="41"/>
     </row>
     <row r="5" spans="1:43" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="I5" s="10"/>
       <c r="J5" s="3" t="s">
         <v>0</v>
@@ -1359,10 +1353,10 @@
       <c r="AD5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AP5" s="45"/>
+      <c r="AP5" s="41"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="18"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1403,124 +1397,124 @@
       <c r="AM6" s="17"/>
       <c r="AN6" s="17"/>
       <c r="AO6" s="17"/>
-      <c r="AP6" s="48"/>
+      <c r="AP6" s="43"/>
     </row>
     <row r="7" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="50"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="45"/>
       <c r="AQ7" s="24"/>
     </row>
     <row r="8" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="52"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="47"/>
       <c r="AQ8" s="24"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1601,56 +1595,56 @@
       <c r="AM9" s="15"/>
       <c r="AN9" s="15"/>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="45"/>
+      <c r="AP9" s="41"/>
     </row>
     <row r="10" spans="1:43" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="55"/>
+      <c r="A10" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="57"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="58"/>
     </row>
     <row r="11" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="53"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1670,12 +1664,12 @@
         <f>F11/D11</f>
         <v>1</v>
       </c>
-      <c r="AP11" s="45"/>
+      <c r="AP11" s="41"/>
     </row>
     <row r="12" spans="1:43" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="53"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
@@ -1693,12 +1687,12 @@
         <f>F12/D12</f>
         <v>1</v>
       </c>
-      <c r="AP12" s="45"/>
+      <c r="AP12" s="41"/>
     </row>
     <row r="13" spans="1:43" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8">
         <v>3</v>
@@ -1716,12 +1710,12 @@
         <f>F13/D13</f>
         <v>1</v>
       </c>
-      <c r="AP13" s="45"/>
+      <c r="AP13" s="41"/>
     </row>
     <row r="14" spans="1:43" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8">
         <v>4</v>
@@ -1736,61 +1730,61 @@
         <v>1</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ref="G12:G14" si="0">F14/D14</f>
-        <v>1</v>
-      </c>
-      <c r="AP14" s="45"/>
+        <f t="shared" ref="G14" si="0">F14/D14</f>
+        <v>1</v>
+      </c>
+      <c r="AP14" s="41"/>
     </row>
     <row r="15" spans="1:43" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="57"/>
+      <c r="A15" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="60"/>
+      <c r="AP15" s="49"/>
     </row>
     <row r="16" spans="1:43" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="53"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8">
         <v>4</v>
@@ -1808,12 +1802,12 @@
         <f>F16/D16</f>
         <v>1</v>
       </c>
-      <c r="AP16" s="45"/>
+      <c r="AP16" s="41"/>
     </row>
     <row r="17" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="53"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="8">
         <v>4</v>
@@ -1831,12 +1825,12 @@
         <f t="shared" ref="G17:G19" si="1">F17/D17</f>
         <v>1</v>
       </c>
-      <c r="AP17" s="45"/>
+      <c r="AP17" s="41"/>
     </row>
     <row r="18" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="8">
         <v>5</v>
@@ -1854,12 +1848,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AP18" s="45"/>
+      <c r="AP18" s="41"/>
     </row>
     <row r="19" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="53"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8">
         <v>5</v>
@@ -1877,58 +1871,58 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AP19" s="45"/>
+      <c r="AP19" s="41"/>
     </row>
     <row r="20" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="27"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="57"/>
+      <c r="A20" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="49"/>
     </row>
     <row r="21" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="53"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8">
         <v>6</v>
@@ -1946,12 +1940,12 @@
         <f>F21/D21</f>
         <v>1</v>
       </c>
-      <c r="AP21" s="45"/>
+      <c r="AP21" s="41"/>
     </row>
     <row r="22" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="53"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="8">
         <v>8</v>
@@ -1969,12 +1963,12 @@
         <f t="shared" ref="G22:G27" si="2">F22/D22</f>
         <v>1</v>
       </c>
-      <c r="AP22" s="45"/>
+      <c r="AP22" s="41"/>
     </row>
     <row r="23" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="53"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="8">
         <v>9</v>
@@ -1992,12 +1986,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AP23" s="45"/>
+      <c r="AP23" s="41"/>
     </row>
     <row r="24" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="53"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="8">
         <v>9</v>
@@ -2015,12 +2009,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AP24" s="45"/>
+      <c r="AP24" s="41"/>
     </row>
     <row r="25" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="53"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="8">
         <v>9</v>
@@ -2038,12 +2032,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AP25" s="45"/>
+      <c r="AP25" s="41"/>
     </row>
     <row r="26" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="53"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="8">
         <v>11</v>
@@ -2061,12 +2055,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AP26" s="45"/>
+      <c r="AP26" s="41"/>
     </row>
     <row r="27" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="53"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="8">
         <v>11</v>
@@ -2084,201 +2078,201 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AP27" s="45"/>
+      <c r="AP27" s="41"/>
     </row>
     <row r="28" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="26"/>
-      <c r="AN28" s="26"/>
-      <c r="AO28" s="26"/>
-      <c r="AP28" s="55"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="49"/>
     </row>
     <row r="29" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="53"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C29" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" s="8">
         <v>12</v>
       </c>
       <c r="F29" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="AP29" s="41"/>
     </row>
     <row r="30" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="53"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C30" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" s="8">
         <v>2</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="AP30" s="41"/>
     </row>
     <row r="31" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="53"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C31" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
       </c>
       <c r="E31" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F31" s="8">
         <v>1</v>
       </c>
       <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="45"/>
-    </row>
-    <row r="32" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="26"/>
-      <c r="AN32" s="26"/>
-      <c r="AO32" s="26"/>
-      <c r="AP32" s="57"/>
-    </row>
-    <row r="33" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="53"/>
+        <v>1</v>
+      </c>
+      <c r="AP31" s="41"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A32" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="58"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A33" s="48"/>
       <c r="B33" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" s="8">
         <v>13</v>
       </c>
       <c r="D33" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F33" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
       </c>
-      <c r="AP33" s="45"/>
-    </row>
-    <row r="34" spans="1:42" ht="19.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="53"/>
+      <c r="AP33" s="41"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A34" s="48"/>
       <c r="B34" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C34" s="8">
+        <v>13</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2</v>
+      </c>
+      <c r="E34" s="8">
         <v>16</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8">
-        <v>15</v>
       </c>
       <c r="F34" s="8">
         <v>1</v>
@@ -2286,84 +2280,106 @@
       <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="AP34" s="45"/>
-    </row>
-    <row r="35" spans="1:42" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="58"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="60"/>
-      <c r="AF35" s="60"/>
-      <c r="AG35" s="60"/>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="60"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="60"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="60"/>
-      <c r="AP35" s="61"/>
+      <c r="AP34" s="41"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A35" s="48"/>
+      <c r="B35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="8">
+        <v>15</v>
+      </c>
+      <c r="D35" s="8">
+        <v>2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>17</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="41"/>
+    </row>
+    <row r="36" spans="1:42" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="50"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+      <c r="AJ36" s="52"/>
+      <c r="AK36" s="52"/>
+      <c r="AL36" s="52"/>
+      <c r="AM36" s="52"/>
+      <c r="AN36" s="52"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A28:AP28"/>
-    <mergeCell ref="A32:AO32"/>
+    <mergeCell ref="A2:G5"/>
+    <mergeCell ref="A32:AP32"/>
+    <mergeCell ref="A28:AO28"/>
     <mergeCell ref="A10:AP10"/>
     <mergeCell ref="A15:AO15"/>
     <mergeCell ref="A20:AM20"/>
-    <mergeCell ref="A2:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="I11:AB14 AN20 I33:AD34 I16:AB19 I21:AB27 I29:AB31">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="I11:AB14 I29:AD31 I16:AB19 I21:AB27 I33:AB35">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>I$9=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
